--- a/results/mp/logistic/corona/confidence/210/masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="182">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,103 +43,121 @@
     <t>arrested</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>death</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>problem</t>
   </si>
   <si>
-    <t>collapse</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>anxiety</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>anxiety</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>fear</t>
   </si>
   <si>
-    <t>selfish</t>
-  </si>
-  <si>
     <t>sick</t>
   </si>
   <si>
-    <t>pressure</t>
-  </si>
-  <si>
     <t>struggling</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>shame</t>
@@ -148,424 +166,400 @@
     <t>emergency</t>
   </si>
   <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>avoid</t>
+    <t>shortages</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>empty</t>
+    <t>risk</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>related</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
-    <t>risk</t>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
     <t>oil</t>
   </si>
   <si>
+    <t>buying</t>
+  </si>
+  <si>
     <t>because</t>
   </si>
   <si>
-    <t>buying</t>
-  </si>
-  <si>
     <t>due</t>
   </si>
   <si>
     <t>or</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
+    <t>with</t>
+  </si>
+  <si>
     <t>from</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>:</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>_</t>
+    <t>people</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>is</t>
   </si>
   <si>
     <t>are</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>easter</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>yourself</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>employees</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>out</t>
-  </si>
-  <si>
-    <t>i</t>
+    <t>'</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>at</t>
-  </si>
-  <si>
-    <t>have</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>'</t>
   </si>
 </sst>
 </file>
@@ -923,7 +917,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q116"/>
+  <dimension ref="A1:Q111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -931,10 +925,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1013,16 +1007,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1034,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1042,13 +1036,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1060,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K4">
         <v>0.9333333333333333</v>
       </c>
       <c r="L4">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="M4">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1084,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1092,13 +1086,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8529411764705882</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1110,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1134,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1142,13 +1136,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8421052631578947</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1160,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K6">
-        <v>0.8947368421052632</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1184,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1192,13 +1186,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.839041095890411</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C7">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1210,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.9</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1234,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1242,13 +1236,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8055555555555556</v>
+        <v>0.84</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1260,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K8">
-        <v>0.8846153846153846</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1284,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1292,13 +1286,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.8287671232876712</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>242</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>242</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1310,31 +1304,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1342,13 +1336,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7894736842105263</v>
+        <v>0.8125</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1360,19 +1354,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K10">
-        <v>0.8666666666666667</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1384,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1392,13 +1386,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7586206896551724</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1413,16 +1407,16 @@
         <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K11">
-        <v>0.8660714285714286</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L11">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1434,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1442,13 +1436,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7333333333333333</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1460,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K12">
-        <v>0.8636363636363636</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L12">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="M12">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1484,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1492,7 +1486,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7333333333333333</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C13">
         <v>22</v>
@@ -1510,19 +1504,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K13">
-        <v>0.8490566037735849</v>
+        <v>0.8433420365535248</v>
       </c>
       <c r="L13">
-        <v>90</v>
+        <v>323</v>
       </c>
       <c r="M13">
-        <v>90</v>
+        <v>323</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1534,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1542,38 +1536,38 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6956521739130435</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C14">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="L14">
         <v>16</v>
       </c>
-      <c r="D14">
+      <c r="M14">
         <v>16</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>7</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K14">
-        <v>0.8459530026109661</v>
-      </c>
-      <c r="L14">
-        <v>324</v>
-      </c>
-      <c r="M14">
-        <v>324</v>
-      </c>
       <c r="N14">
         <v>1</v>
       </c>
@@ -1584,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1592,13 +1586,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6923076923076923</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1610,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15">
-        <v>0.8448275862068966</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L15">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="M15">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1634,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1642,13 +1636,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6842105263157895</v>
+        <v>0.7</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1660,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K16">
-        <v>0.828125</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L16">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M16">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1684,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1692,13 +1686,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6756756756756757</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1710,19 +1704,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K17">
-        <v>0.825</v>
+        <v>0.79375</v>
       </c>
       <c r="L17">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M17">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1734,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1742,13 +1736,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.675</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1760,19 +1754,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K18">
-        <v>0.8181818181818182</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1784,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1792,13 +1786,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6538461538461539</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1810,19 +1804,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K19">
-        <v>0.8170731707317073</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L19">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="M19">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1834,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1842,13 +1836,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6521739130434783</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1860,19 +1854,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K20">
-        <v>0.8028169014084507</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L20">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1884,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1892,13 +1886,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6521739130434783</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1910,19 +1904,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K21">
-        <v>0.7948717948717948</v>
+        <v>0.7890625</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1934,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1942,13 +1936,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6363636363636364</v>
+        <v>0.6</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1960,19 +1954,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K22">
-        <v>0.7906976744186046</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1984,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1992,13 +1986,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6274509803921569</v>
+        <v>0.5968992248062015</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2010,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K23">
-        <v>0.7659574468085106</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2034,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2042,13 +2036,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6137566137566137</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C24">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="D24">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2060,19 +2054,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K24">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L24">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2084,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2092,13 +2086,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6101694915254238</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C25">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2110,19 +2104,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K25">
-        <v>0.746031746031746</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L25">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2134,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2142,13 +2136,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5833333333333334</v>
+        <v>0.575</v>
       </c>
       <c r="C26">
-        <v>301</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>301</v>
+        <v>23</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2160,19 +2154,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>215</v>
+        <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K26">
-        <v>0.7222222222222222</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2184,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2192,13 +2186,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5503355704697986</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C27">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="D27">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2210,19 +2204,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K27">
-        <v>0.7222222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="L27">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M27">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2234,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2242,13 +2236,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5483870967741935</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C28">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2260,19 +2254,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K28">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2284,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2292,37 +2286,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5161290322580645</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>20</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>16</v>
       </c>
-      <c r="D29">
-        <v>16</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>15</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K29">
-        <v>0.7083333333333334</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L29">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M29">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2334,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2342,13 +2336,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2360,19 +2354,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K30">
-        <v>0.7083333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2384,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2392,13 +2386,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5</v>
+        <v>0.5369127516778524</v>
       </c>
       <c r="C31">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="D31">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2410,10 +2404,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K31">
         <v>0.7037037037037037</v>
@@ -2442,13 +2436,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2460,19 +2454,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K32">
-        <v>0.7</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2484,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2492,7 +2486,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4814814814814815</v>
+        <v>0.5</v>
       </c>
       <c r="C33">
         <v>13</v>
@@ -2510,19 +2504,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K33">
-        <v>0.6857142857142857</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L33">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2534,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2542,13 +2536,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="C34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2560,19 +2554,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K34">
-        <v>0.6842105263157895</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2584,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>6</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2592,13 +2586,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4615384615384616</v>
+        <v>0.46875</v>
       </c>
       <c r="C35">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2610,19 +2604,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K35">
-        <v>0.6818181818181818</v>
+        <v>0.675</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2634,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2642,13 +2636,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4615384615384616</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2660,19 +2654,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K36">
         <v>0.6666666666666666</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2684,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2692,49 +2686,49 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4594594594594595</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C37">
+        <v>18</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>21</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K37">
+        <v>0.66</v>
+      </c>
+      <c r="L37">
+        <v>33</v>
+      </c>
+      <c r="M37">
+        <v>33</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>17</v>
-      </c>
-      <c r="D37">
-        <v>17</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>20</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K37">
-        <v>0.6617647058823529</v>
-      </c>
-      <c r="L37">
-        <v>225</v>
-      </c>
-      <c r="M37">
-        <v>225</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2742,13 +2736,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4533333333333333</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C38">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D38">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2760,31 +2754,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K38">
-        <v>0.6571428571428571</v>
+        <v>0.6484641638225256</v>
       </c>
       <c r="L38">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="M38">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>24</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2792,13 +2786,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4516129032258064</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C39">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2810,19 +2804,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K39">
-        <v>0.6521739130434783</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2834,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2842,13 +2836,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.45</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="C40">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D40">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2860,19 +2854,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K40">
-        <v>0.6470588235294118</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2884,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2892,13 +2886,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.4464285714285715</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="C41">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D41">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2910,31 +2904,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K41">
-        <v>0.6394557823129252</v>
+        <v>0.625</v>
       </c>
       <c r="L41">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c r="N41">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>106</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2942,7 +2936,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4181818181818182</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C42">
         <v>23</v>
@@ -2960,19 +2954,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K42">
-        <v>0.6153846153846154</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L42">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M42">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2984,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2992,37 +2986,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C43">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>22</v>
       </c>
-      <c r="D43">
-        <v>22</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>33</v>
-      </c>
       <c r="J43" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K43">
-        <v>0.6071428571428571</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M43">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -3034,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3042,13 +3036,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="C44">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D44">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3060,31 +3054,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K44">
-        <v>0.606694560669456</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L44">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M44">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3092,13 +3086,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3293650793650794</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="C45">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="D45">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3110,19 +3104,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K45">
-        <v>0.5957446808510638</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L45">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M45">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3134,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3142,13 +3136,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3255813953488372</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D46">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3160,19 +3154,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K46">
-        <v>0.5842696629213483</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L46">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="M46">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3184,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3192,13 +3186,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.325</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="C47">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D47">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3210,19 +3204,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K47">
-        <v>0.5714285714285714</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3234,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3242,13 +3236,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3125</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="C48">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="D48">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3260,19 +3254,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K48">
-        <v>0.5714285714285714</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3284,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3292,13 +3286,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2727272727272727</v>
+        <v>0.275</v>
       </c>
       <c r="C49">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D49">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3310,19 +3304,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K49">
-        <v>0.5652173913043478</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3334,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3342,13 +3336,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2493297587131367</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C50">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="D50">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3360,19 +3354,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>280</v>
+        <v>37</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K50">
-        <v>0.5600000000000001</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L50">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M50">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3384,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3392,13 +3386,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2372881355932203</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C51">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D51">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3410,19 +3404,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K51">
-        <v>0.5454545454545454</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L51">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M51">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3434,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3442,49 +3436,49 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2372881355932203</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="C52">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>15</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>44</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K52">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="L52">
         <v>14</v>
       </c>
-      <c r="D52">
+      <c r="M52">
         <v>14</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>45</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K52">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="L52">
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
         <v>13</v>
-      </c>
-      <c r="M52">
-        <v>13</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3492,13 +3486,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1566666666666667</v>
+        <v>0.2305630026809651</v>
       </c>
       <c r="C53">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="D53">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3510,19 +3504,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K53">
-        <v>0.5185185185185185</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M53">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3534,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3542,49 +3536,49 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1</v>
+        <v>0.1566666666666667</v>
       </c>
       <c r="C54">
+        <v>47</v>
+      </c>
+      <c r="D54">
+        <v>47</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>253</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K54">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="L54">
+        <v>14</v>
+      </c>
+      <c r="M54">
+        <v>15</v>
+      </c>
+      <c r="N54">
+        <v>0.93</v>
+      </c>
+      <c r="O54">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
         <v>16</v>
-      </c>
-      <c r="D54">
-        <v>16</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>144</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K54">
-        <v>0.5</v>
-      </c>
-      <c r="L54">
-        <v>21</v>
-      </c>
-      <c r="M54">
-        <v>21</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3592,13 +3586,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09246575342465753</v>
+        <v>0.08561643835616438</v>
       </c>
       <c r="C55">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D55">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E55">
         <v>0.04</v>
@@ -3610,19 +3604,19 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K55">
-        <v>0.4888888888888889</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="L55">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M55">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3634,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3642,37 +3636,37 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.07234042553191489</v>
+        <v>0.08125</v>
       </c>
       <c r="C56">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D56">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E56">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>218</v>
+        <v>147</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K56">
-        <v>0.4516129032258064</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L56">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M56">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3684,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3692,37 +3686,37 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04347826086956522</v>
+        <v>0.06808510638297872</v>
       </c>
       <c r="C57">
         <v>16</v>
       </c>
       <c r="D57">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>352</v>
+        <v>219</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K57">
-        <v>0.4411764705882353</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L57">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M57">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3734,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3742,37 +3736,37 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.04235090751944685</v>
+        <v>0.04931506849315068</v>
       </c>
       <c r="C58">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D58">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E58">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="F58">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>1108</v>
+        <v>347</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K58">
-        <v>0.4246575342465753</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="L58">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M58">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3784,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3792,37 +3786,37 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.03739837398373984</v>
+        <v>0.03664072632944228</v>
       </c>
       <c r="C59">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="D59">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="E59">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="F59">
-        <v>0.6599999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>592</v>
+        <v>2971</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K59">
-        <v>0.4193548387096774</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M59">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3834,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3842,37 +3836,37 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.03268608414239482</v>
+        <v>0.03555941023417172</v>
       </c>
       <c r="C60">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="D60">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="E60">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="F60">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>2989</v>
+        <v>1112</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K60">
-        <v>0.390625</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L60">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M60">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3884,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3892,37 +3886,37 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.03240740740740741</v>
+        <v>0.03267045454545454</v>
       </c>
       <c r="C61">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D61">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E61">
-        <v>0.39</v>
+        <v>0.15</v>
       </c>
       <c r="F61">
-        <v>0.61</v>
+        <v>0.85</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>836</v>
+        <v>681</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K61">
-        <v>0.3717948717948718</v>
+        <v>0.325</v>
       </c>
       <c r="L61">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M61">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3934,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3942,37 +3936,37 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.02931442080378251</v>
+        <v>0.03074433656957929</v>
       </c>
       <c r="C62">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="D62">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="E62">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="F62">
-        <v>0.6899999999999999</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>2053</v>
+        <v>599</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K62">
-        <v>0.3714285714285714</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L62">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M62">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3984,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3992,49 +3986,49 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.02891156462585034</v>
+        <v>0.0264367816091954</v>
       </c>
       <c r="C63">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D63">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="E63">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="F63">
-        <v>0.72</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>2284</v>
+        <v>847</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K63">
-        <v>0.3620689655172414</v>
+        <v>0.265625</v>
       </c>
       <c r="L63">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M63">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N63">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4042,37 +4036,37 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.02710413694721826</v>
+        <v>0.02598016060462919</v>
       </c>
       <c r="C64">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D64">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="E64">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="F64">
-        <v>0.73</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>682</v>
+        <v>2062</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K64">
-        <v>0.3508771929824561</v>
+        <v>0.2641509433962264</v>
       </c>
       <c r="L64">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M64">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -4084,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4092,37 +4086,37 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02669404517453799</v>
+        <v>0.02561117578579744</v>
       </c>
       <c r="C65">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D65">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E65">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
       <c r="F65">
-        <v>0.87</v>
+        <v>0.73</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>474</v>
+        <v>837</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K65">
-        <v>0.3442622950819672</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L65">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M65">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -4134,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4142,49 +4136,49 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.0246031746031746</v>
+        <v>0.02514919011082694</v>
       </c>
       <c r="C66">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D66">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="E66">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
       <c r="F66">
-        <v>0.52</v>
+        <v>0.64</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>1229</v>
+        <v>2287</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K66">
-        <v>0.2826086956521739</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L66">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M66">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N66">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="O66">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>33</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4192,49 +4186,49 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02365930599369085</v>
+        <v>0.02411873840445269</v>
       </c>
       <c r="C67">
+        <v>13</v>
+      </c>
+      <c r="D67">
+        <v>19</v>
+      </c>
+      <c r="E67">
+        <v>0.32</v>
+      </c>
+      <c r="F67">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>526</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K67">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="L67">
         <v>15</v>
       </c>
-      <c r="D67">
-        <v>31</v>
-      </c>
-      <c r="E67">
-        <v>0.52</v>
-      </c>
-      <c r="F67">
-        <v>0.48</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>619</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K67">
-        <v>0.1962616822429906</v>
-      </c>
-      <c r="L67">
-        <v>21</v>
-      </c>
       <c r="M67">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N67">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4242,37 +4236,37 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.02123893805309734</v>
+        <v>0.01843971631205674</v>
       </c>
       <c r="C68">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D68">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E68">
-        <v>0.29</v>
+        <v>0.54</v>
       </c>
       <c r="F68">
-        <v>0.71</v>
+        <v>0.46</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>1106</v>
+        <v>692</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K68">
-        <v>0.1944444444444444</v>
+        <v>0.1405405405405405</v>
       </c>
       <c r="L68">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M68">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -4284,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>58</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4292,37 +4286,37 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.01974448315911731</v>
+        <v>0.01802197802197802</v>
       </c>
       <c r="C69">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D69">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="E69">
-        <v>0.26</v>
+        <v>0.45</v>
       </c>
       <c r="F69">
-        <v>0.74</v>
+        <v>0.55</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>844</v>
+        <v>2234</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K69">
-        <v>0.1774193548387097</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="L69">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M69">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -4334,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4342,13 +4336,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.01910112359550562</v>
+        <v>0.017825311942959</v>
       </c>
       <c r="C70">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D70">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E70">
         <v>0.47</v>
@@ -4360,19 +4354,19 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>873</v>
+        <v>1102</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K70">
-        <v>0.1473684210526316</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="L70">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M70">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -4384,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4392,37 +4386,37 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.01888449714536671</v>
+        <v>0.0178173719376392</v>
       </c>
       <c r="C71">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D71">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E71">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="F71">
-        <v>0.5700000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>2234</v>
+        <v>1323</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K71">
-        <v>0.1338028169014084</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="L71">
+        <v>18</v>
+      </c>
+      <c r="M71">
         <v>19</v>
-      </c>
-      <c r="M71">
-        <v>20</v>
       </c>
       <c r="N71">
         <v>0.95</v>
@@ -4434,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4442,49 +4436,49 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.01733632469916378</v>
+        <v>0.01765650080256822</v>
       </c>
       <c r="C72">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="D72">
-        <v>178</v>
+        <v>65</v>
       </c>
       <c r="E72">
-        <v>0.52</v>
+        <v>0.66</v>
       </c>
       <c r="F72">
-        <v>0.48</v>
+        <v>0.34</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>4818</v>
+        <v>1224</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K72">
-        <v>0.1304347826086956</v>
+        <v>0.1172839506172839</v>
       </c>
       <c r="L72">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M72">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N72">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="O72">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4492,49 +4486,49 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.01706231454005935</v>
+        <v>0.01573564122738002</v>
       </c>
       <c r="C73">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D73">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="E73">
-        <v>0.39</v>
+        <v>0.5</v>
       </c>
       <c r="F73">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>1325</v>
+        <v>5004</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K73">
-        <v>0.125</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="L73">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M73">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N73">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -4542,49 +4536,49 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.01560647965231134</v>
+        <v>0.01567398119122257</v>
       </c>
       <c r="C74">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="D74">
-        <v>182</v>
+        <v>26</v>
       </c>
       <c r="E74">
-        <v>0.57</v>
+        <v>0.42</v>
       </c>
       <c r="F74">
-        <v>0.43</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>4983</v>
+        <v>942</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K74">
-        <v>0.1238938053097345</v>
+        <v>0.08608058608058608</v>
       </c>
       <c r="L74">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="M74">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>99</v>
+        <v>499</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -4592,49 +4586,49 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.01552664708350818</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="C75">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D75">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="E75">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="F75">
-        <v>0.37</v>
+        <v>0.62</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>2346</v>
+        <v>884</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K75">
-        <v>0.1</v>
+        <v>0.08469055374592833</v>
       </c>
       <c r="L75">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M75">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N75">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="O75">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>117</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -4642,37 +4636,37 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.01552393272962484</v>
+        <v>0.01385301714017375</v>
       </c>
       <c r="C76">
+        <v>59</v>
+      </c>
+      <c r="D76">
+        <v>128</v>
+      </c>
+      <c r="E76">
+        <v>0.54</v>
+      </c>
+      <c r="F76">
+        <v>0.46</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>4200</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K76">
+        <v>0.08304498269896193</v>
+      </c>
+      <c r="L76">
         <v>24</v>
       </c>
-      <c r="D76">
-        <v>72</v>
-      </c>
-      <c r="E76">
-        <v>0.67</v>
-      </c>
-      <c r="F76">
-        <v>0.33</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>1522</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="K76">
-        <v>0.0872093023255814</v>
-      </c>
-      <c r="L76">
-        <v>15</v>
-      </c>
       <c r="M76">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -4684,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>157</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -4692,49 +4686,49 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.01241272304111714</v>
+        <v>0.01309061157700961</v>
       </c>
       <c r="C77">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D77">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="E77">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="F77">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>2546</v>
+        <v>4825</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K77">
-        <v>0.08496732026143791</v>
+        <v>0.07932692307692307</v>
       </c>
       <c r="L77">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M77">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N77">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>280</v>
+        <v>383</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -4742,49 +4736,49 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.01220943883540737</v>
+        <v>0.01220295439948619</v>
       </c>
       <c r="C78">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D78">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="E78">
-        <v>0.57</v>
+        <v>0.66</v>
       </c>
       <c r="F78">
-        <v>0.43</v>
+        <v>0.34</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>4207</v>
+        <v>1538</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K78">
-        <v>0.08045977011494253</v>
+        <v>0.07926829268292683</v>
       </c>
       <c r="L78">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M78">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N78">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O78">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>320</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -4792,49 +4786,49 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.01179801793298726</v>
+        <v>0.01206695212144803</v>
       </c>
       <c r="C79">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D79">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="E79">
-        <v>0.61</v>
+        <v>0.77</v>
       </c>
       <c r="F79">
-        <v>0.39</v>
+        <v>0.23</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>2094</v>
+        <v>2538</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K79">
-        <v>0.07951807228915662</v>
+        <v>0.07492795389048991</v>
       </c>
       <c r="L79">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M79">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N79">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O79">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>382</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -4842,557 +4836,605 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.01134154244977317</v>
+        <v>0.01132609721566777</v>
       </c>
       <c r="C80">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D80">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="E80">
+        <v>0.62</v>
+      </c>
+      <c r="F80">
+        <v>0.38</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>2095</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K80">
+        <v>0.07023411371237458</v>
+      </c>
+      <c r="L80">
+        <v>84</v>
+      </c>
+      <c r="M80">
+        <v>88</v>
+      </c>
+      <c r="N80">
+        <v>0.95</v>
+      </c>
+      <c r="O80">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>0.01093355761143818</v>
+      </c>
+      <c r="C81">
+        <v>26</v>
+      </c>
+      <c r="D81">
+        <v>93</v>
+      </c>
+      <c r="E81">
+        <v>0.72</v>
+      </c>
+      <c r="F81">
+        <v>0.28</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>2352</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K81">
+        <v>0.06053268765133172</v>
+      </c>
+      <c r="L81">
+        <v>25</v>
+      </c>
+      <c r="M81">
+        <v>30</v>
+      </c>
+      <c r="N81">
+        <v>0.83</v>
+      </c>
+      <c r="O81">
+        <v>0.17</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>0.009011908593498551</v>
+      </c>
+      <c r="C82">
+        <v>28</v>
+      </c>
+      <c r="D82">
+        <v>122</v>
+      </c>
+      <c r="E82">
         <v>0.77</v>
       </c>
-      <c r="F80">
+      <c r="F82">
         <v>0.23</v>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>3051</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K80">
-        <v>0.0695970695970696</v>
-      </c>
-      <c r="L80">
-        <v>38</v>
-      </c>
-      <c r="M80">
-        <v>39</v>
-      </c>
-      <c r="N80">
-        <v>0.97</v>
-      </c>
-      <c r="O80">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P80" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q80">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="81" spans="10:17">
-      <c r="J81" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K81">
-        <v>0.0678391959798995</v>
-      </c>
-      <c r="L81">
-        <v>81</v>
-      </c>
-      <c r="M81">
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>3079</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K82">
+        <v>0.0576923076923077</v>
+      </c>
+      <c r="L82">
+        <v>15</v>
+      </c>
+      <c r="M82">
+        <v>23</v>
+      </c>
+      <c r="N82">
+        <v>0.65</v>
+      </c>
+      <c r="O82">
+        <v>0.35</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="J83" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K83">
+        <v>0.04629629629629629</v>
+      </c>
+      <c r="L83">
+        <v>15</v>
+      </c>
+      <c r="M83">
+        <v>18</v>
+      </c>
+      <c r="N83">
+        <v>0.83</v>
+      </c>
+      <c r="O83">
+        <v>0.17</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="J84" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K84">
+        <v>0.04187946884576098</v>
+      </c>
+      <c r="L84">
+        <v>41</v>
+      </c>
+      <c r="M84">
+        <v>51</v>
+      </c>
+      <c r="N84">
+        <v>0.8</v>
+      </c>
+      <c r="O84">
+        <v>0.2</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="J85" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K85">
+        <v>0.04145936981757877</v>
+      </c>
+      <c r="L85">
+        <v>25</v>
+      </c>
+      <c r="M85">
+        <v>27</v>
+      </c>
+      <c r="N85">
+        <v>0.93</v>
+      </c>
+      <c r="O85">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="J86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K86">
+        <v>0.03936411809235428</v>
+      </c>
+      <c r="L86">
+        <v>104</v>
+      </c>
+      <c r="M86">
+        <v>135</v>
+      </c>
+      <c r="N86">
+        <v>0.77</v>
+      </c>
+      <c r="O86">
+        <v>0.23</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="J87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K87">
+        <v>0.03765690376569038</v>
+      </c>
+      <c r="L87">
+        <v>18</v>
+      </c>
+      <c r="M87">
+        <v>25</v>
+      </c>
+      <c r="N87">
+        <v>0.72</v>
+      </c>
+      <c r="O87">
+        <v>0.28</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="J88" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K88">
+        <v>0.03525046382189239</v>
+      </c>
+      <c r="L88">
+        <v>19</v>
+      </c>
+      <c r="M88">
+        <v>24</v>
+      </c>
+      <c r="N88">
+        <v>0.79</v>
+      </c>
+      <c r="O88">
+        <v>0.21</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="J89" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K89">
+        <v>0.03393843725335438</v>
+      </c>
+      <c r="L89">
+        <v>43</v>
+      </c>
+      <c r="M89">
+        <v>65</v>
+      </c>
+      <c r="N89">
+        <v>0.66</v>
+      </c>
+      <c r="O89">
+        <v>0.34</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="J90" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N81">
-        <v>0.93</v>
-      </c>
-      <c r="O81">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P81" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="82" spans="10:17">
-      <c r="J82" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K82">
-        <v>0.06779661016949153</v>
-      </c>
-      <c r="L82">
-        <v>28</v>
-      </c>
-      <c r="M82">
-        <v>33</v>
-      </c>
-      <c r="N82">
-        <v>0.85</v>
-      </c>
-      <c r="O82">
-        <v>0.15</v>
-      </c>
-      <c r="P82" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q82">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="83" spans="10:17">
-      <c r="J83" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K83">
-        <v>0.05923344947735192</v>
-      </c>
-      <c r="L83">
-        <v>17</v>
-      </c>
-      <c r="M83">
-        <v>19</v>
-      </c>
-      <c r="N83">
-        <v>0.89</v>
-      </c>
-      <c r="O83">
-        <v>0.11</v>
-      </c>
-      <c r="P83" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q83">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="84" spans="10:17">
-      <c r="J84" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K84">
-        <v>0.049079754601227</v>
-      </c>
-      <c r="L84">
-        <v>16</v>
-      </c>
-      <c r="M84">
-        <v>17</v>
-      </c>
-      <c r="N84">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O84">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P84" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q84">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="85" spans="10:17">
-      <c r="J85" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K85">
-        <v>0.03979591836734694</v>
-      </c>
-      <c r="L85">
-        <v>39</v>
-      </c>
-      <c r="M85">
-        <v>48</v>
-      </c>
-      <c r="N85">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O85">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P85" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q85">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K86">
-        <v>0.03826955074875208</v>
-      </c>
-      <c r="L86">
-        <v>23</v>
-      </c>
-      <c r="M86">
-        <v>27</v>
-      </c>
-      <c r="N86">
-        <v>0.85</v>
-      </c>
-      <c r="O86">
-        <v>0.15</v>
-      </c>
-      <c r="P86" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="87" spans="10:17">
-      <c r="J87" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K87">
-        <v>0.03632343651295009</v>
-      </c>
-      <c r="L87">
-        <v>115</v>
-      </c>
-      <c r="M87">
-        <v>150</v>
-      </c>
-      <c r="N87">
+      <c r="K90">
+        <v>0.02962496060510558</v>
+      </c>
+      <c r="L90">
+        <v>94</v>
+      </c>
+      <c r="M90">
+        <v>122</v>
+      </c>
+      <c r="N90">
         <v>0.77</v>
       </c>
-      <c r="O87">
+      <c r="O90">
         <v>0.23</v>
       </c>
-      <c r="P87" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>3051</v>
-      </c>
-    </row>
-    <row r="88" spans="10:17">
-      <c r="J88" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K88">
-        <v>0.03597122302158273</v>
-      </c>
-      <c r="L88">
-        <v>95</v>
-      </c>
-      <c r="M88">
-        <v>127</v>
-      </c>
-      <c r="N88">
-        <v>0.75</v>
-      </c>
-      <c r="O88">
-        <v>0.25</v>
-      </c>
-      <c r="P88" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q88">
-        <v>2546</v>
-      </c>
-    </row>
-    <row r="89" spans="10:17">
-      <c r="J89" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K89">
-        <v>0.03441040704993705</v>
-      </c>
-      <c r="L89">
-        <v>82</v>
-      </c>
-      <c r="M89">
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="J91" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K91">
+        <v>0.02893081761006289</v>
+      </c>
+      <c r="L91">
+        <v>69</v>
+      </c>
+      <c r="M91">
+        <v>78</v>
+      </c>
+      <c r="N91">
+        <v>0.88</v>
+      </c>
+      <c r="O91">
+        <v>0.12</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="J92" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K92">
+        <v>0.02769739561802398</v>
+      </c>
+      <c r="L92">
+        <v>67</v>
+      </c>
+      <c r="M92">
         <v>93</v>
       </c>
-      <c r="N89">
-        <v>0.88</v>
-      </c>
-      <c r="O89">
-        <v>0.12</v>
-      </c>
-      <c r="P89" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q89">
-        <v>2301</v>
-      </c>
-    </row>
-    <row r="90" spans="10:17">
-      <c r="J90" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K90">
-        <v>0.03339517625231911</v>
-      </c>
-      <c r="L90">
-        <v>18</v>
-      </c>
-      <c r="M90">
-        <v>23</v>
-      </c>
-      <c r="N90">
-        <v>0.78</v>
-      </c>
-      <c r="O90">
-        <v>0.22</v>
-      </c>
-      <c r="P90" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q90">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="91" spans="10:17">
-      <c r="J91" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K91">
-        <v>0.03057324840764331</v>
-      </c>
-      <c r="L91">
-        <v>48</v>
-      </c>
-      <c r="M91">
-        <v>72</v>
-      </c>
-      <c r="N91">
-        <v>0.67</v>
-      </c>
-      <c r="O91">
-        <v>0.33</v>
-      </c>
-      <c r="P91" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q91">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="92" spans="10:17">
-      <c r="J92" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K92">
-        <v>0.03026481715006305</v>
-      </c>
-      <c r="L92">
-        <v>24</v>
-      </c>
-      <c r="M92">
-        <v>32</v>
-      </c>
       <c r="N92">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="O92">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="93" spans="10:17">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
       <c r="J93" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K93">
-        <v>0.03013392857142857</v>
+        <v>0.02603664416586307</v>
       </c>
       <c r="L93">
         <v>27</v>
       </c>
       <c r="M93">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N93">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="O93">
-        <v>0.16</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P93" t="b">
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="94" spans="10:17">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
       <c r="J94" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K94">
-        <v>0.029082774049217</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="L94">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M94">
+        <v>25</v>
+      </c>
+      <c r="N94">
+        <v>0.8</v>
+      </c>
+      <c r="O94">
+        <v>0.2</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="J95" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K95">
+        <v>0.025</v>
+      </c>
+      <c r="L95">
         <v>16</v>
       </c>
-      <c r="N94">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O94">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P94" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q94">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="95" spans="10:17">
-      <c r="J95" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K95">
-        <v>0.02606177606177606</v>
-      </c>
-      <c r="L95">
-        <v>27</v>
-      </c>
       <c r="M95">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N95">
-        <v>0.87</v>
+        <v>0.62</v>
       </c>
       <c r="O95">
-        <v>0.13</v>
+        <v>0.38</v>
       </c>
       <c r="P95" t="b">
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="96" spans="10:17">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
       <c r="J96" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K96">
-        <v>0.02574750830564784</v>
+        <v>0.02349206349206349</v>
       </c>
       <c r="L96">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="M96">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="N96">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="O96">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="P96" t="b">
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>2346</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K97">
-        <v>0.02537485582468281</v>
+        <v>0.02341137123745819</v>
       </c>
       <c r="L97">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M97">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N97">
-        <v>0.67</v>
+        <v>0.84</v>
       </c>
       <c r="O97">
-        <v>0.33</v>
+        <v>0.16</v>
       </c>
       <c r="P97" t="b">
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>845</v>
+        <v>876</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K98">
-        <v>0.02519685039370079</v>
+        <v>0.02169505271695053</v>
       </c>
       <c r="L98">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="M98">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="N98">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="O98">
-        <v>0.48</v>
+        <v>0.37</v>
       </c>
       <c r="P98" t="b">
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>619</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K99">
-        <v>0.02305246422893482</v>
+        <v>0.02121640735502122</v>
       </c>
       <c r="L99">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M99">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="N99">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="O99">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
       <c r="P99" t="b">
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>1229</v>
+        <v>692</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K100">
-        <v>0.02292768959435626</v>
+        <v>0.02119071644803229</v>
       </c>
       <c r="L100">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M100">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N100">
         <v>0.72</v>
@@ -5404,423 +5446,293 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>554</v>
+        <v>970</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K101">
-        <v>0.02249718785151856</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="L101">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M101">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N101">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="O101">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="P101" t="b">
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>869</v>
+        <v>873</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K102">
-        <v>0.02108036890645586</v>
+        <v>0.0184331797235023</v>
       </c>
       <c r="L102">
         <v>16</v>
       </c>
       <c r="M102">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N102">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="O102">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="P102" t="b">
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>743</v>
+        <v>852</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="K103">
-        <v>0.02107728337236534</v>
+        <v>0.01827553889409559</v>
       </c>
       <c r="L103">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="M103">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="N103">
-        <v>0.39</v>
+        <v>0.62</v>
       </c>
       <c r="O103">
-        <v>0.61</v>
+        <v>0.38</v>
       </c>
       <c r="P103" t="b">
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>836</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K104">
-        <v>0.02025167125442391</v>
+        <v>0.01616303583977512</v>
       </c>
       <c r="L104">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="M104">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="N104">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="O104">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="P104" t="b">
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>4983</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K105">
-        <v>0.01893708002443494</v>
+        <v>0.01607142857142857</v>
       </c>
       <c r="L105">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="M105">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="N105">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="O105">
-        <v>0.48</v>
+        <v>0.53</v>
       </c>
       <c r="P105" t="b">
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>4818</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="K106">
-        <v>0.01876955161626695</v>
+        <v>0.01592920353982301</v>
       </c>
       <c r="L106">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="M106">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="N106">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="O106">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="P106" t="b">
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>941</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="K107">
-        <v>0.01836158192090396</v>
+        <v>0.01499118165784832</v>
       </c>
       <c r="L107">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M107">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N107">
-        <v>0.52</v>
+        <v>0.45</v>
       </c>
       <c r="O107">
-        <v>0.48</v>
+        <v>0.55</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>695</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K108">
-        <v>0.01828410689170183</v>
+        <v>0.01422413793103448</v>
       </c>
       <c r="L108">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M108">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="N108">
-        <v>0.61</v>
+        <v>0.36</v>
       </c>
       <c r="O108">
-        <v>0.39</v>
+        <v>0.64</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>2094</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K109">
-        <v>0.01689189189189189</v>
+        <v>0.01245210727969349</v>
       </c>
       <c r="L109">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M109">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="N109">
-        <v>0.47</v>
+        <v>0.32</v>
       </c>
       <c r="O109">
-        <v>0.53</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="P109" t="b">
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>873</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K110">
-        <v>0.01613657623947615</v>
+        <v>0.01194921583271098</v>
       </c>
       <c r="L110">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="M110">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="N110">
-        <v>0.57</v>
+        <v>0.4</v>
       </c>
       <c r="O110">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>4207</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>183</v>
+        <v>64</v>
       </c>
       <c r="K111">
-        <v>0.01417004048582996</v>
+        <v>0.007682030728122912</v>
       </c>
       <c r="L111">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M111">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="N111">
-        <v>0.5600000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="O111">
-        <v>0.4399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="112" spans="10:17">
-      <c r="J112" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K112">
-        <v>0.01412180052956752</v>
-      </c>
-      <c r="L112">
-        <v>32</v>
-      </c>
-      <c r="M112">
-        <v>75</v>
-      </c>
-      <c r="N112">
-        <v>0.43</v>
-      </c>
-      <c r="O112">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="P112" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q112">
-        <v>2234</v>
-      </c>
-    </row>
-    <row r="113" spans="10:17">
-      <c r="J113" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K113">
-        <v>0.0134550696780394</v>
-      </c>
-      <c r="L113">
-        <v>28</v>
-      </c>
-      <c r="M113">
-        <v>90</v>
-      </c>
-      <c r="N113">
-        <v>0.31</v>
-      </c>
-      <c r="O113">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="P113" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q113">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="114" spans="10:17">
-      <c r="J114" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K114">
-        <v>0.01168325400259628</v>
-      </c>
-      <c r="L114">
-        <v>27</v>
-      </c>
-      <c r="M114">
-        <v>95</v>
-      </c>
-      <c r="N114">
-        <v>0.28</v>
-      </c>
-      <c r="O114">
-        <v>0.72</v>
-      </c>
-      <c r="P114" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q114">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="115" spans="10:17">
-      <c r="J115" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K115">
-        <v>0.01119402985074627</v>
-      </c>
-      <c r="L115">
-        <v>15</v>
-      </c>
-      <c r="M115">
-        <v>38</v>
-      </c>
-      <c r="N115">
-        <v>0.39</v>
-      </c>
-      <c r="O115">
-        <v>0.61</v>
-      </c>
-      <c r="P115" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q115">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="116" spans="10:17">
-      <c r="J116" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K116">
-        <v>0.005655355954757153</v>
-      </c>
-      <c r="L116">
-        <v>17</v>
-      </c>
-      <c r="M116">
-        <v>118</v>
-      </c>
-      <c r="N116">
-        <v>0.14</v>
-      </c>
-      <c r="O116">
-        <v>0.86</v>
-      </c>
-      <c r="P116" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q116">
-        <v>2989</v>
+        <v>2971</v>
       </c>
     </row>
   </sheetData>
